--- a/medicine/Enfance/Georges_et_les_Trésors_du_cosmos/Georges_et_les_Trésors_du_cosmos.xlsx
+++ b/medicine/Enfance/Georges_et_les_Trésors_du_cosmos/Georges_et_les_Trésors_du_cosmos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georges_et_les_Tr%C3%A9sors_du_cosmos</t>
+          <t>Georges_et_les_Trésors_du_cosmos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Georges et les Trésors du cosmos (titre original : George's Cosmic Treasure Hunt) est un roman britannique de Stephen Hawking et Lucy Hawking paru en 2009. Suite de Georges et les Secrets de l'univers, il est le deuxième tome de la série Georges.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georges_et_les_Tr%C3%A9sors_du_cosmos</t>
+          <t>Georges_et_les_Trésors_du_cosmos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Bellis doit partir aux États-Unis, car Eric travaille sur le projet "Homer", qui consiste en l'envoi d'un robot sur Mars. Cosmos,  pourtant toujours en panne, reçoit un curieux message. Annie (la fille d'Eric) le trouve et décide d'inviter Georges pendant les vacances pour l'aider. Ensemble, ils trouvent la signification du message : allez trouver Homer sur Mars, sinon, la Terre sera détruite.
 Il s'ensuit alors une chasse aux trésors folle dans l'espace afin de sauver la planète Terre.
